--- a/biology/Botanique/Piperaceae/Piperaceae.xlsx
+++ b/biology/Botanique/Piperaceae/Piperaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Piperaceae (Pipéracées) est une famille de plante dicotylédones de divergence ancienne.
 Ce sont des arbustes, des lianes ou des petits arbres des régions tropicales.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre piper mot latin issu du grec peperi qui  lui-même vient du sanskrit pippali[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre piper mot latin issu du grec peperi qui  lui-même vient du sanskrit pippali.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la classification phylogénétique APG II (2003)[2], la composition est différente et inclut le genre Peperomia.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la classification phylogénétique APG II (2003), la composition est différente et inclut le genre Peperomia.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (29 mars 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (29 mars 2010) :
 genre Arctottonia
 genre Macropiper
 genre Manekia
@@ -588,7 +606,7 @@
 genre Trianaeopiper
 genre Verhuellia
 genre Zippelia
-Selon NCBI  (29 mars 2010)[4] :
+Selon NCBI  (29 mars 2010) :
 genre Macropiper
 genre Manekia
 genre Peperomia
@@ -596,7 +614,7 @@
 genre Trianaeopiper
 genre Verhuellia
 genre Zippelia
-Selon DELTA Angio           (29 mars 2010)[5] :
+Selon DELTA Angio           (29 mars 2010) :
 genre Circaeocarpus
 genre Zippelia
 genre Lindeniopiper
@@ -605,7 +623,7 @@
 genre Pothomorphe
 genre Sarcorhachis
 genre Trianaeopiper
-Selon ITIS      (29 mars 2010)[6] :
+Selon ITIS      (29 mars 2010) :
 genre Lepianthes Raf.
 genre Peperomia Ruiz &amp; Pavón
 genre Piper L.
